--- a/Subjects/ProdPrep.xlsx
+++ b/Subjects/ProdPrep.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="14320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="14320" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="265">
   <si>
     <t>Aoyama Gakuin University</t>
   </si>
@@ -677,21 +678,6 @@
     <t>Bottom*</t>
   </si>
   <si>
-    <t>In Citation impact you are most similar to X (96% similar), and most different to Y (80% similar).</t>
-  </si>
-  <si>
-    <t>In Industry income to academic staff you are most similar to X (87% similar), and most different to Y (43% similar).</t>
-  </si>
-  <si>
-    <t>In International staff you are most similar to X (100% similar), and most different to Y (27% similar).</t>
-  </si>
-  <si>
-    <t>In Coauthorship you are most similar to X (99% similar), and most different to Y (34% similar).</t>
-  </si>
-  <si>
-    <t>In International students you are most similar to X (98% similar), and most different to Y (45% similar).</t>
-  </si>
-  <si>
     <t>In Doctorate to bachelor awarded you are most similar to École Polytechnique Fédérale de Lausanne (88% similar with a score of ), and most different to École Normale Supérieure (54% similar).</t>
   </si>
   <si>
@@ -717,6 +703,120 @@
   </si>
   <si>
     <t>In Research reputation you are most similar to University College London (98% similar), and most different to Cardiff University (21% similar).</t>
+  </si>
+  <si>
+    <t>In Citation impact you are most similar to University College London (96% similar), and most different to Humboldt University of Berlin (80% similar).</t>
+  </si>
+  <si>
+    <t>In Industry income to academic staff you are most similar to University of California, Santa Barbara (87% similar), and most different to Cardiff University (43% similar).</t>
+  </si>
+  <si>
+    <t>In International staff you are most similar to École Polytechnique Fédérale de Lausanne (100% similar), and most different to University of Illinois at Urbana-Champaign (27% similar).</t>
+  </si>
+  <si>
+    <t>In Coauthorship you are most similar to École Polytechnique Fédérale de Lausanne (99% similar), and most different to University of Illinois at Urbana-Champaign (34% similar).</t>
+  </si>
+  <si>
+    <t>In International students you are most similar to École Polytechnique Fédérale de Lausanne (98% similar), and most different to University of California, Santa Barbara (45% similar).</t>
+  </si>
+  <si>
+    <t>In this metric the highest performing benchmark institution is École Normale Supérieure, beating your score by 29.5.</t>
+  </si>
+  <si>
+    <t>In this metric the highest performing benchmark institution is University College London, beating your score by 13.2.</t>
+  </si>
+  <si>
+    <t>In this metric the highest performing benchmark institution is KU Leuven, which does not beat your score.</t>
+  </si>
+  <si>
+    <t>In this metric the highest performing benchmark institution is University College London, which does not beat your score.</t>
+  </si>
+  <si>
+    <t>In this metric the highest performing benchmark institution isUniversity of California, Santa Barbara, beating your score by 8.2.</t>
+  </si>
+  <si>
+    <t>In this metric the highest performing benchmark institution is KU Leuven, beating your score by 20.</t>
+  </si>
+  <si>
+    <t>In this metric the highest performing benchmark institution is École Polytechnique Fédérale de Lausanne, matching your score.</t>
+  </si>
+  <si>
+    <t>In this metric the highest performing benchmark institution is KU Leuven, beating your score by 1.5.</t>
+  </si>
+  <si>
+    <t>In this metric the highest performing benchmark institution is École Polytechnique Fédérale de Lausanne, beating your score by 1.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The three metrics that you can most improve in, in comparison with your benchmark institutions, are Students to Academic Staff, Doctorates to Academic Staff, and Industry Income to Academic Staff. </t>
+  </si>
+  <si>
+    <t>At the pillars level, overall you are most similar to University College London, followed by École Polytechnique Fédérale de Lausanne and KU Leuven (all above 80% similar).  You are least similar to Cardiff University (below 70% similar). The pillar in which you are most like your peers is Citations, the pillar in which you are most different from your peers is Industry Income.</t>
+  </si>
+  <si>
+    <t>The strongest baseline institution in Teaching is University College London, which scores 1.1 higher than you.</t>
+  </si>
+  <si>
+    <t>The strongest baseline institution in Research is University College London, although it scores lower than you.</t>
+  </si>
+  <si>
+    <t>The strongest baseline institution in Citations is University of California, Santa Barbara, which scores 8.1 higher than you.</t>
+  </si>
+  <si>
+    <t>The strongest basline institution in Industry Income is KU Leuven, which scores 20 points better than you.</t>
+  </si>
+  <si>
+    <t>The strongest baseline institution in International outlook is École Polytechnique Fédérale de Lausanne, which scores 0.7 better than you.</t>
+  </si>
+  <si>
+    <t>Looking at the individual scores the best area to concentrate on is Industry Income. Looking at the socres weighted according to the THE methodology the best area to concentrate on is Citations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When looking at the metrics as weighted in the THE methodology, the three metrics that you can most improve in, in comparison with your benchmark institutions, are Citations, Students to Academic Staff, and Doctorates to Academic Staff. </t>
+  </si>
+  <si>
+    <t>University of California, Mountain View</t>
+  </si>
+  <si>
+    <t>Miskatonic University</t>
+  </si>
+  <si>
+    <t>University of Minnesota at Wobegon</t>
+  </si>
+  <si>
+    <t>University of Ambridge</t>
+  </si>
+  <si>
+    <t>University of Bayes</t>
+  </si>
+  <si>
+    <t>École Normale Distribution</t>
+  </si>
+  <si>
+    <t>Brückenproblem University, Königsberg</t>
+  </si>
+  <si>
+    <t>University of Dantzig</t>
+  </si>
+  <si>
+    <t>Invisible College</t>
+  </si>
+  <si>
+    <t>Similarity</t>
+  </si>
+  <si>
+    <t>Student similarity with your peers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polytechnique Frequentist </t>
+  </si>
+  <si>
+    <t>Student similarity outside your peers (top 3)</t>
+  </si>
+  <si>
+    <t>Townshend University</t>
+  </si>
+  <si>
+    <t>University of Welchman</t>
   </si>
 </sst>
 </file>
@@ -726,7 +826,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -795,6 +895,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -819,7 +924,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -842,8 +947,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -873,8 +1012,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="56">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -885,6 +1025,23 @@
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -895,6 +1052,23 @@
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2400,18 +2574,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC81"/>
+  <dimension ref="A1:AC120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
@@ -2430,8 +2606,11 @@
       <c r="F1" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="K1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>77</v>
@@ -2448,13 +2627,21 @@
       <c r="F2" s="1">
         <v>97.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="K2" t="str">
+        <f>"In " &amp; B1 &amp; " you are most like " &amp;A8&amp; " (99% similar), and most different to " &amp;A29 &amp; " (40% similar)."</f>
+        <v>In Teaching you are most like University College London (99% similar), and most different to Cardiff University (40% similar).</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="K3" t="str">
+        <f>"In " &amp; C1 &amp; " you are most like " &amp;A33&amp; " (96% similar), and most different to " &amp;A29 &amp; " (33% similar)."</f>
+        <v>In Research you are most like University College London (96% similar), and most different to Cardiff University (33% similar).</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>146</v>
       </c>
@@ -2473,8 +2660,12 @@
       <c r="F4" s="1">
         <v>78.099999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="K4" t="str">
+        <f>"In " &amp; D1 &amp; " you are most like " &amp;A8&amp; " (97% similar), and most different to " &amp;A30 &amp; " (81% similar)."</f>
+        <v>In Citations you are most like University College London (97% similar), and most different to Humboldt University of Berlin (81% similar).</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -2493,8 +2684,12 @@
       <c r="F5" s="1">
         <v>62.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="K5" t="str">
+        <f>"In " &amp; E1 &amp; " you are most like " &amp;A9&amp; " (87% similar), and most different to " &amp;A29 &amp; " (43% similar)."</f>
+        <v>In Industry income you are most like University of California, Santa Barbara (87% similar), and most different to Cardiff University (43% similar).</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -2513,8 +2708,12 @@
       <c r="F6" s="1">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="K6" t="str">
+        <f>"In " &amp; F1 &amp; " you are most like " &amp;A12&amp; " (99% similar), and most different to " &amp;A35 &amp; " (47% similar)."</f>
+        <v>In International outlook you are most like École Polytechnique Fédérale de Lausanne (99% similar), and most different to University of Illinois at Urbana-Champaign (47% similar).</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
@@ -2533,8 +2732,11 @@
       <c r="F7" s="1">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="K7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>150</v>
       </c>
@@ -2553,8 +2755,11 @@
       <c r="F8" s="1">
         <v>94.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="K8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>151</v>
       </c>
@@ -2573,8 +2778,11 @@
       <c r="F9" s="1">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="K9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>152</v>
       </c>
@@ -2593,8 +2801,11 @@
       <c r="F10" s="1">
         <v>45.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="K10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>153</v>
       </c>
@@ -2613,8 +2824,11 @@
       <c r="F11" s="1">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="K11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>154</v>
       </c>
@@ -2633,2663 +2847,3225 @@
       <c r="F12" s="1">
         <v>98.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
+      <c r="K12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <f>MAX(B4:B12)</f>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:F13" si="0">MAX(C4:C12)</f>
+        <v>91</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>99.2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <f>B13-B2</f>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:F14" si="1">C13-C2</f>
+        <v>-4</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1000000000000085</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.69999999999998863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G15">
+        <f>B14*B15</f>
+        <v>32.999999999999829</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:K15" si="2">C14*C15</f>
+        <v>-120</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>243.00000000000026</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <f>ABS(B$2-B4)</f>
         <v>46.1</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:F14" si="0">ABS(C$2-C4)</f>
+      <c r="C17">
+        <f t="shared" ref="C17:F17" si="3">ABS(C$2-C4)</f>
         <v>63.4</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
+      <c r="D17">
+        <f t="shared" si="3"/>
         <v>9.0999999999999943</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
+      <c r="E17">
+        <f t="shared" si="3"/>
         <v>45.4</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
+      <c r="F17">
+        <f t="shared" si="3"/>
         <v>19.800000000000011</v>
       </c>
-      <c r="G14">
-        <f>AVERAGE(B14:F14)</f>
+      <c r="G17">
+        <f>AVERAGE(B17:F17)</f>
         <v>36.760000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ref="B15:F15" si="1">ABS(B$2-B5)</f>
-        <v>13.299999999999997</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>43.9</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>35.300000000000004</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15:G22" si="2">AVERAGE(B15:F15)</f>
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ref="B16:F16" si="3">ABS(B$2-B6)</f>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
-        <v>18.099999999999994</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>3.7999999999999972</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>29.300000000000011</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>17.660000000000004</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:F17" si="4">ABS(B$2-B7)</f>
-        <v>10.900000000000006</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
-        <v>22.900000000000006</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="4"/>
-        <v>12.199999999999989</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="4"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="4"/>
-        <v>12.400000000000006</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>19.62</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="R17" s="1">
-        <v>100</v>
-      </c>
-      <c r="S17" s="1">
-        <v>39.6</v>
-      </c>
-      <c r="T17" s="1">
-        <v>77.2</v>
-      </c>
-      <c r="U17" s="1">
-        <v>84.3</v>
-      </c>
-      <c r="V17" s="1">
-        <v>100</v>
-      </c>
-      <c r="W17" s="1">
-        <v>100</v>
-      </c>
-      <c r="X17" s="1">
-        <v>34</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>100</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>84.1</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>100</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:F18" si="5">ABS(B$2-B8)</f>
-        <v>1.0999999999999943</v>
+        <f t="shared" ref="B18:F18" si="4">ABS(B$2-B5)</f>
+        <v>13.299999999999997</v>
       </c>
       <c r="C18">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
-        <v>3.1000000000000085</v>
+        <f t="shared" si="4"/>
+        <v>17.5</v>
       </c>
       <c r="E18">
-        <f t="shared" si="5"/>
-        <v>39.5</v>
+        <f t="shared" si="4"/>
+        <v>43.9</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
+        <f t="shared" si="4"/>
+        <v>35.300000000000004</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
-        <v>10.24</v>
-      </c>
-      <c r="P18" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>50</v>
-      </c>
-      <c r="R18" s="1">
-        <v>63.9</v>
-      </c>
-      <c r="S18" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="T18" s="1">
-        <v>53.9</v>
-      </c>
-      <c r="U18" s="1">
-        <v>54.6</v>
-      </c>
-      <c r="V18" s="1">
-        <v>69.5</v>
-      </c>
-      <c r="W18" s="1">
-        <v>58.3</v>
-      </c>
-      <c r="X18" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>73.5</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>52.3</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>65.7</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>77.7</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>67.7</v>
+        <f t="shared" ref="G18:G25" si="5">AVERAGE(B18:F18)</f>
+        <v>25.6</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:F19" si="6">ABS(B$2-B9)</f>
-        <v>24.4</v>
+        <f t="shared" ref="B19:F19" si="6">ABS(B$2-B6)</f>
+        <v>17.100000000000001</v>
       </c>
       <c r="C19">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>18.099999999999994</v>
       </c>
       <c r="D19">
         <f t="shared" si="6"/>
-        <v>8.1000000000000085</v>
+        <v>3.7999999999999972</v>
       </c>
       <c r="E19">
         <f t="shared" si="6"/>
-        <v>10.400000000000006</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <f t="shared" si="6"/>
-        <v>36.400000000000006</v>
+        <v>29.300000000000011</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
-        <v>21.660000000000004</v>
+        <f t="shared" si="5"/>
+        <v>17.660000000000004</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>44</v>
-      </c>
-      <c r="R19" s="1">
-        <v>41.2</v>
-      </c>
-      <c r="S19" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="T19" s="1">
-        <v>44.8</v>
-      </c>
-      <c r="U19" s="1">
-        <v>43.1</v>
-      </c>
-      <c r="V19" s="1">
-        <v>44</v>
-      </c>
-      <c r="W19" s="1">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="X19" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>47.3</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>36.9</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>34</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>50.7</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>39</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:F20" si="7">ABS(B$2-B10)</f>
-        <v>12.5</v>
+        <f t="shared" ref="B20:F20" si="7">ABS(B$2-B7)</f>
+        <v>10.900000000000006</v>
       </c>
       <c r="C20">
         <f t="shared" si="7"/>
-        <v>13.799999999999997</v>
+        <v>22.900000000000006</v>
       </c>
       <c r="D20">
         <f t="shared" si="7"/>
-        <v>4.2999999999999972</v>
+        <v>12.199999999999989</v>
       </c>
       <c r="E20">
         <f t="shared" si="7"/>
-        <v>27.200000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F20">
         <f t="shared" si="7"/>
-        <v>52.100000000000009</v>
+        <v>12.400000000000006</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
-        <v>21.98</v>
-      </c>
-      <c r="P20" s="14">
-        <v>0.25</v>
+        <f t="shared" si="5"/>
+        <v>19.62</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="Q20" s="1">
-        <v>40</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="R20" s="1">
-        <v>25.8</v>
+        <v>100</v>
       </c>
       <c r="S20" s="1">
-        <v>2.2000000000000002</v>
+        <v>39.6</v>
       </c>
       <c r="T20" s="1">
-        <v>38.299999999999997</v>
+        <v>77.2</v>
       </c>
       <c r="U20" s="1">
-        <v>34.799999999999997</v>
+        <v>84.3</v>
       </c>
       <c r="V20" s="1">
-        <v>23.1</v>
+        <v>100</v>
       </c>
       <c r="W20" s="1">
-        <v>26.3</v>
+        <v>100</v>
       </c>
       <c r="X20" s="1">
-        <v>2.1</v>
+        <v>34</v>
       </c>
       <c r="Y20" s="1">
-        <v>23.4</v>
+        <v>100</v>
       </c>
       <c r="Z20" s="1">
-        <v>30.4</v>
+        <v>84.1</v>
       </c>
       <c r="AA20" s="1">
-        <v>23.7</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="1">
-        <v>20.9</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="1">
-        <v>22.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:F21" si="8">ABS(B$2-B11)</f>
-        <v>6.4000000000000057</v>
+        <f t="shared" ref="B21:F21" si="8">ABS(B$2-B8)</f>
+        <v>1.0999999999999943</v>
       </c>
       <c r="C21">
         <f t="shared" si="8"/>
-        <v>47.3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3.1000000000000085</v>
       </c>
       <c r="E21">
         <f t="shared" si="8"/>
-        <v>42.9</v>
+        <v>39.5</v>
       </c>
       <c r="F21">
         <f t="shared" si="8"/>
-        <v>12.400000000000006</v>
+        <v>3.5</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
-        <v>22.6</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>217</v>
+        <f t="shared" si="5"/>
+        <v>10.24</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0.75</v>
       </c>
       <c r="Q21" s="1">
-        <v>36.299999999999997</v>
+        <v>50</v>
       </c>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>63.9</v>
       </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="T21" s="1">
-        <v>29.4</v>
+        <v>53.9</v>
       </c>
       <c r="U21" s="1">
-        <v>18.100000000000001</v>
+        <v>54.6</v>
       </c>
       <c r="V21" s="1">
-        <v>1.9</v>
+        <v>69.5</v>
       </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="X21" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.7</v>
+        <v>73.5</v>
       </c>
       <c r="Z21" s="1">
-        <v>28</v>
+        <v>52.3</v>
       </c>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>65.7</v>
       </c>
       <c r="AB21" s="1">
-        <v>1.3</v>
+        <v>77.7</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.4</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:F22" si="9">ABS(B$2-B12)</f>
-        <v>15.700000000000003</v>
+        <f t="shared" ref="B22:F22" si="9">ABS(B$2-B9)</f>
+        <v>24.4</v>
       </c>
       <c r="C22">
         <f t="shared" si="9"/>
-        <v>27.5</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <f t="shared" si="9"/>
-        <v>3.5</v>
+        <v>8.1000000000000085</v>
       </c>
       <c r="E22">
         <f t="shared" si="9"/>
-        <v>14.599999999999994</v>
+        <v>10.400000000000006</v>
       </c>
       <c r="F22">
         <f t="shared" si="9"/>
-        <v>0.69999999999998863</v>
+        <v>36.400000000000006</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
-        <v>12.399999999999997</v>
+        <f t="shared" si="5"/>
+        <v>21.660000000000004</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>44</v>
+      </c>
+      <c r="R22" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="S22" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="T22" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="U22" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>44</v>
+      </c>
+      <c r="W22" s="1">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="X22" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>36.9</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>34</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:29">
+      <c r="A23" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="B23">
-        <f>AVERAGE(B14:B22)</f>
-        <v>16.388888888888889</v>
+        <f t="shared" ref="B23:F23" si="10">ABS(B$2-B10)</f>
+        <v>12.5</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:G23" si="10">AVERAGE(C14:C22)</f>
-        <v>27.111111111111111</v>
+        <f t="shared" si="10"/>
+        <v>13.799999999999997</v>
       </c>
       <c r="D23">
         <f t="shared" si="10"/>
-        <v>7.2888888888888879</v>
+        <v>4.2999999999999972</v>
       </c>
       <c r="E23">
         <f t="shared" si="10"/>
-        <v>31.511111111111113</v>
+        <v>27.200000000000003</v>
       </c>
       <c r="F23">
         <f t="shared" si="10"/>
+        <v>52.100000000000009</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>21.98</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>40</v>
+      </c>
+      <c r="R23" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="S23" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T23" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="U23" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="V23" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="X23" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:F24" si="11">ABS(B$2-B11)</f>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="11"/>
+        <v>47.3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="11"/>
+        <v>42.9</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="11"/>
+        <v>12.400000000000006</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>22.6</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="U24" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>28</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:F25" si="12">ABS(B$2-B12)</f>
+        <v>15.700000000000003</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="12"/>
+        <v>27.5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="12"/>
+        <v>14.599999999999994</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="12"/>
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>12.399999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="B26">
+        <f>AVERAGE(B17:B25)</f>
+        <v>16.388888888888889</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:G26" si="13">AVERAGE(C17:C25)</f>
+        <v>27.111111111111111</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="13"/>
+        <v>7.2888888888888879</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="13"/>
+        <v>31.511111111111113</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="13"/>
         <v>22.433333333333341</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="10"/>
+      <c r="G26">
+        <f t="shared" si="13"/>
         <v>20.946666666666669</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:29">
-      <c r="A26" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="10">
-        <f>1-(B14/B$2)</f>
-        <v>0.40129870129870127</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:G26" si="11">1-(C14/C$2)</f>
-        <v>0.33263157894736839</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="11"/>
-        <v>0.9001097694840835</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="11"/>
-        <v>0.4325</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="11"/>
-        <v>0.797752808988764</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="A27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="10">
-        <f t="shared" ref="B27:F27" si="12">1-(B15/B$2)</f>
-        <v>0.82727272727272727</v>
-      </c>
-      <c r="C27" s="10">
-        <f t="shared" si="12"/>
-        <v>0.81052631578947365</v>
-      </c>
-      <c r="D27" s="10">
-        <f t="shared" si="12"/>
-        <v>0.80790340285400664</v>
-      </c>
-      <c r="E27" s="10">
-        <f t="shared" si="12"/>
-        <v>0.45125000000000004</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="12"/>
-        <v>0.63942798774259446</v>
-      </c>
-    </row>
     <row r="28" spans="1:29">
-      <c r="A28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="10">
-        <f t="shared" ref="B28:F28" si="13">1-(B16/B$2)</f>
-        <v>0.7779220779220779</v>
-      </c>
-      <c r="C28" s="10">
-        <f t="shared" si="13"/>
-        <v>0.80947368421052635</v>
-      </c>
-      <c r="D28" s="10">
-        <f t="shared" si="13"/>
-        <v>0.95828759604829861</v>
-      </c>
-      <c r="E28" s="10">
-        <f t="shared" si="13"/>
-        <v>0.75</v>
-      </c>
-      <c r="F28" s="10">
-        <f t="shared" si="13"/>
-        <v>0.70071501532175673</v>
-      </c>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B29" s="10">
-        <f t="shared" ref="B29:F29" si="14">1-(B17/B$2)</f>
-        <v>0.85844155844155834</v>
+        <f>1-(B17/B$2)</f>
+        <v>0.40129870129870127</v>
       </c>
       <c r="C29" s="10">
-        <f t="shared" si="14"/>
-        <v>0.75894736842105259</v>
+        <f t="shared" ref="C29:G29" si="14">1-(C17/C$2)</f>
+        <v>0.33263157894736839</v>
       </c>
       <c r="D29" s="10">
         <f t="shared" si="14"/>
-        <v>0.86608122941822185</v>
+        <v>0.9001097694840835</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="14"/>
-        <v>0.50374999999999992</v>
+        <v>0.4325</v>
       </c>
       <c r="F29" s="10">
         <f t="shared" si="14"/>
-        <v>0.87334014300306428</v>
+        <v>0.797752808988764</v>
+      </c>
+      <c r="G29" s="13">
+        <f>AVERAGE(B29:F29)</f>
+        <v>0.57285857174378341</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B30" s="10">
         <f t="shared" ref="B30:F30" si="15">1-(B18/B$2)</f>
-        <v>0.98571428571428577</v>
+        <v>0.82727272727272727</v>
       </c>
       <c r="C30" s="10">
         <f t="shared" si="15"/>
-        <v>0.95789473684210524</v>
+        <v>0.81052631578947365</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="15"/>
-        <v>0.96597145993413824</v>
+        <v>0.80790340285400664</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" si="15"/>
-        <v>0.50624999999999998</v>
+        <v>0.45125000000000004</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="15"/>
-        <v>0.96424923391215522</v>
+        <v>0.63942798774259446</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" ref="G30:G37" si="16">AVERAGE(B30:F30)</f>
+        <v>0.70727608673176046</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B31" s="10">
-        <f t="shared" ref="B31:F31" si="16">1-(B19/B$2)</f>
-        <v>0.68311688311688312</v>
+        <f t="shared" ref="B31:F31" si="17">1-(B19/B$2)</f>
+        <v>0.7779220779220779</v>
       </c>
       <c r="C31" s="10">
+        <f t="shared" si="17"/>
+        <v>0.80947368421052635</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="17"/>
+        <v>0.95828759604829861</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="17"/>
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="17"/>
+        <v>0.70071501532175673</v>
+      </c>
+      <c r="G31" s="13">
         <f t="shared" si="16"/>
-        <v>0.6947368421052631</v>
-      </c>
-      <c r="D31" s="10">
-        <f t="shared" si="16"/>
-        <v>0.91108671789242579</v>
-      </c>
-      <c r="E31" s="10">
-        <f t="shared" si="16"/>
-        <v>0.86999999999999988</v>
-      </c>
-      <c r="F31" s="10">
-        <f t="shared" si="16"/>
-        <v>0.62819203268641466</v>
+        <v>0.79927967470053196</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B32" s="10">
-        <f t="shared" ref="B32:F32" si="17">1-(B20/B$2)</f>
-        <v>0.83766233766233766</v>
+        <f t="shared" ref="B32:F32" si="18">1-(B20/B$2)</f>
+        <v>0.85844155844155834</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" si="17"/>
-        <v>0.85473684210526324</v>
+        <f t="shared" si="18"/>
+        <v>0.75894736842105259</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="17"/>
-        <v>0.95279912184412741</v>
+        <f t="shared" si="18"/>
+        <v>0.86608122941822185</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="17"/>
-        <v>0.65999999999999992</v>
+        <f t="shared" si="18"/>
+        <v>0.50374999999999992</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="17"/>
-        <v>0.46782431052093965</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="10">
-        <f t="shared" ref="B33:F33" si="18">1-(B21/B$2)</f>
-        <v>0.91688311688311686</v>
-      </c>
-      <c r="C33" s="10">
-        <f t="shared" si="18"/>
-        <v>0.50210526315789483</v>
-      </c>
-      <c r="D33" s="10">
-        <f t="shared" si="18"/>
-        <v>0.95609220636663006</v>
-      </c>
-      <c r="E33" s="10">
-        <f t="shared" si="18"/>
-        <v>0.46375</v>
-      </c>
-      <c r="F33" s="10">
         <f t="shared" si="18"/>
         <v>0.87334014300306428</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="G32" s="13">
+        <f t="shared" si="16"/>
+        <v>0.77211205985677933</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="10">
+        <f t="shared" ref="B33:F33" si="19">1-(B21/B$2)</f>
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="C33" s="10">
+        <f t="shared" si="19"/>
+        <v>0.95789473684210524</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="19"/>
+        <v>0.96597145993413824</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="19"/>
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="19"/>
+        <v>0.96424923391215522</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="16"/>
+        <v>0.876015943280537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="10">
+        <f t="shared" ref="B34:F34" si="20">1-(B22/B$2)</f>
+        <v>0.68311688311688312</v>
+      </c>
+      <c r="C34" s="10">
+        <f t="shared" si="20"/>
+        <v>0.6947368421052631</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="20"/>
+        <v>0.91108671789242579</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="20"/>
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="20"/>
+        <v>0.62819203268641466</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="16"/>
+        <v>0.75742649516019733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="10">
+        <f t="shared" ref="B35:F35" si="21">1-(B23/B$2)</f>
+        <v>0.83766233766233766</v>
+      </c>
+      <c r="C35" s="10">
+        <f t="shared" si="21"/>
+        <v>0.85473684210526324</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="21"/>
+        <v>0.95279912184412741</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="21"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="21"/>
+        <v>0.46782431052093965</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="16"/>
+        <v>0.75460452242653364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="10">
+        <f t="shared" ref="B36:F36" si="22">1-(B24/B$2)</f>
+        <v>0.91688311688311686</v>
+      </c>
+      <c r="C36" s="10">
+        <f t="shared" si="22"/>
+        <v>0.50210526315789483</v>
+      </c>
+      <c r="D36" s="10">
+        <f t="shared" si="22"/>
+        <v>0.95609220636663006</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="22"/>
+        <v>0.46375</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="22"/>
+        <v>0.87334014300306428</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="16"/>
+        <v>0.74243414588214118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="10">
-        <f t="shared" ref="B34:F34" si="19">1-(B22/B$2)</f>
+      <c r="B37" s="10">
+        <f t="shared" ref="B37:F37" si="23">1-(B25/B$2)</f>
         <v>0.79610389610389609</v>
       </c>
-      <c r="C34" s="10">
-        <f t="shared" si="19"/>
+      <c r="C37" s="10">
+        <f t="shared" si="23"/>
         <v>0.71052631578947367</v>
       </c>
-      <c r="D34" s="10">
-        <f t="shared" si="19"/>
+      <c r="D37" s="10">
+        <f t="shared" si="23"/>
         <v>0.96158068057080137</v>
       </c>
-      <c r="E34" s="10">
-        <f t="shared" si="19"/>
+      <c r="E37" s="10">
+        <f t="shared" si="23"/>
         <v>0.81750000000000012</v>
       </c>
-      <c r="F34" s="10">
-        <f t="shared" si="19"/>
+      <c r="F37" s="10">
+        <f t="shared" si="23"/>
         <v>0.99284984678243116</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
+      <c r="G37" s="13">
+        <f t="shared" si="16"/>
+        <v>0.85571214784932048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="B38" s="13">
+        <f>AVERAGE(B29:B37)</f>
+        <v>0.78715728715728728</v>
+      </c>
+      <c r="C38" s="13">
+        <f t="shared" ref="C38:F38" si="24">AVERAGE(C29:C37)</f>
+        <v>0.7146198830409356</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" si="24"/>
+        <v>0.91999024271252594</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="24"/>
+        <v>0.60611111111111116</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="24"/>
+        <v>0.77085461355124274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F41" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G41" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I41" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J41" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K41" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L41" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="M38" s="12" t="s">
+      <c r="M41" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="N38" s="12" t="s">
+      <c r="N41" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="1" t="s">
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1">
+    <row r="43" spans="1:15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1">
         <v>71.599999999999994</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C43" s="1">
         <v>71</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D43" s="1">
         <v>91.3</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E43" s="1">
         <v>63.1</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F43" s="1">
         <v>47</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G43" s="1">
         <v>86.8</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H43" s="1">
         <v>99.8</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I43" s="1">
         <v>96.2</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J43" s="1">
         <v>91.1</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K43" s="1">
         <v>80</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L43" s="1">
         <v>100</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M43" s="1">
         <v>94.9</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N43" s="1">
         <v>98.9</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:15">
+      <c r="A44" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="1" t="s">
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B45" s="1">
         <v>44.7</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C45" s="1">
         <v>46</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D45" s="1">
         <v>14.8</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E45" s="1">
         <v>42.2</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F45" s="1">
         <v>51.6</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G45" s="1">
         <v>56</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H45" s="1">
         <v>38.799999999999997</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I45" s="1">
         <v>21</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J45" s="1">
         <v>82</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K45" s="1">
         <v>34.6</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L45" s="1">
         <v>63.5</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M45" s="1">
         <v>86.3</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N45" s="1">
         <v>84.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="1" t="s">
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B46" s="1">
         <v>56.2</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C46" s="1">
         <v>99.9</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D46" s="1">
         <v>63.5</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E46" s="1">
         <v>57.7</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F46" s="1">
         <v>23.1</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G46" s="1">
         <v>77.400000000000006</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H46" s="1">
         <v>97.8</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I46" s="1">
         <v>70</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J46" s="1">
         <v>73.5</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K46" s="1">
         <v>36.1</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L46" s="1">
         <v>42.7</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M46" s="1">
         <v>80.3</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N46" s="1">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="1" t="s">
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B47" s="1">
         <v>50.6</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C47" s="1">
         <v>93.1</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D47" s="1">
         <v>57.4</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E47" s="1">
         <v>66.7</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F47" s="1">
         <v>25.1</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G47" s="1">
         <v>99.5</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H47" s="1">
         <v>99.6</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I47" s="1">
         <v>61.7</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J47" s="1">
         <v>87.3</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K47" s="1">
         <v>100</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L47" s="1">
         <v>40.5</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M47" s="1">
         <v>96.4</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N47" s="1">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="1" t="s">
+      <c r="O47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B48" s="1">
         <v>51.6</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C48" s="1">
         <v>66.7</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D48" s="1">
         <v>75.5</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E48" s="1">
         <v>48.9</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F48" s="1">
         <v>49.9</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G48" s="1">
         <v>85.3</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H48" s="1">
         <v>59.3</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I48" s="1">
         <v>71.900000000000006</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J48" s="1">
         <v>78.900000000000006</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K48" s="1">
         <v>40.299999999999997</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L48" s="1">
         <v>87.6</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M48" s="1">
         <v>85.9</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N48" s="1">
         <v>82.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="1">
-        <v>59.2</v>
-      </c>
-      <c r="C46" s="1">
-        <v>69.7</v>
-      </c>
-      <c r="D46" s="1">
-        <v>93.7</v>
-      </c>
-      <c r="E46" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="F46" s="1">
-        <v>60.6</v>
-      </c>
-      <c r="G46" s="1">
-        <v>100</v>
-      </c>
-      <c r="H46" s="1">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="I46" s="1">
-        <v>94.5</v>
-      </c>
-      <c r="J46" s="1">
-        <v>94.2</v>
-      </c>
-      <c r="K46" s="1">
-        <v>40.5</v>
-      </c>
-      <c r="L46" s="1">
-        <v>90.1</v>
-      </c>
-      <c r="M46" s="1">
-        <v>93.1</v>
-      </c>
-      <c r="N46" s="1">
-        <v>99.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="1">
-        <v>42.2</v>
-      </c>
-      <c r="C47" s="1">
-        <v>85.2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>44.6</v>
-      </c>
-      <c r="E47" s="1">
-        <v>72</v>
-      </c>
-      <c r="F47" s="1">
-        <v>30.9</v>
-      </c>
-      <c r="G47" s="1">
-        <v>96.1</v>
-      </c>
-      <c r="H47" s="1">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="I47" s="1">
-        <v>54</v>
-      </c>
-      <c r="J47" s="1">
-        <v>99.2</v>
-      </c>
-      <c r="K47" s="1">
-        <v>90.4</v>
-      </c>
-      <c r="L47" s="1">
-        <v>79.8</v>
-      </c>
-      <c r="M47" s="1">
-        <v>59.4</v>
-      </c>
-      <c r="N47" s="1">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="1">
-        <v>45.8</v>
-      </c>
-      <c r="C48" s="1">
-        <v>64.7</v>
-      </c>
-      <c r="D48" s="1">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="E48" s="1">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="F48" s="1">
-        <v>39.4</v>
-      </c>
-      <c r="G48" s="1">
-        <v>92.8</v>
-      </c>
-      <c r="H48" s="1">
-        <v>76</v>
-      </c>
-      <c r="I48" s="1">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="J48" s="1">
-        <v>86.8</v>
-      </c>
-      <c r="K48" s="1">
-        <v>52.8</v>
-      </c>
-      <c r="L48" s="1">
-        <v>27.4</v>
-      </c>
-      <c r="M48" s="1">
-        <v>33.1</v>
-      </c>
-      <c r="N48" s="1">
-        <v>77</v>
+      <c r="O48" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B49" s="1">
-        <v>39.200000000000003</v>
+        <v>59.2</v>
       </c>
       <c r="C49" s="1">
-        <v>96</v>
+        <v>69.7</v>
       </c>
       <c r="D49" s="1">
-        <v>67.5</v>
+        <v>93.7</v>
       </c>
       <c r="E49" s="1">
-        <v>42.8</v>
+        <v>51.2</v>
       </c>
       <c r="F49" s="1">
-        <v>76.5</v>
+        <v>60.6</v>
       </c>
       <c r="G49" s="1">
-        <v>56.3</v>
+        <v>100</v>
       </c>
       <c r="H49" s="1">
-        <v>41.3</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="I49" s="1">
-        <v>47</v>
+        <v>94.5</v>
       </c>
       <c r="J49" s="1">
-        <v>87.1</v>
+        <v>94.2</v>
       </c>
       <c r="K49" s="1">
-        <v>37.1</v>
+        <v>40.5</v>
       </c>
       <c r="L49" s="1">
-        <v>88.5</v>
+        <v>90.1</v>
       </c>
       <c r="M49" s="1">
-        <v>91.8</v>
+        <v>93.1</v>
       </c>
       <c r="N49" s="1">
-        <v>76.3</v>
+        <v>99.9</v>
+      </c>
+      <c r="O49" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B50" s="1">
-        <v>79.900000000000006</v>
+        <v>42.2</v>
       </c>
       <c r="C50" s="1">
-        <v>68.8</v>
+        <v>85.2</v>
       </c>
       <c r="D50" s="1">
-        <v>56.5</v>
+        <v>44.6</v>
       </c>
       <c r="E50" s="1">
-        <v>55.1</v>
+        <v>72</v>
       </c>
       <c r="F50" s="1">
-        <v>61.5</v>
+        <v>30.9</v>
       </c>
       <c r="G50" s="1">
-        <v>56.2</v>
+        <v>96.1</v>
       </c>
       <c r="H50" s="1">
-        <v>83.7</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="I50" s="1">
-        <v>65.900000000000006</v>
+        <v>54</v>
       </c>
       <c r="J50" s="1">
-        <v>94.6</v>
+        <v>99.2</v>
       </c>
       <c r="K50" s="1">
-        <v>65.400000000000006</v>
+        <v>90.4</v>
       </c>
       <c r="L50" s="1">
-        <v>100</v>
+        <v>79.8</v>
       </c>
       <c r="M50" s="1">
-        <v>95.7</v>
+        <v>59.4</v>
       </c>
       <c r="N50" s="1">
-        <v>100</v>
+        <v>45.4</v>
+      </c>
+      <c r="O50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E51" s="1">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="F51" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="G51" s="1">
+        <v>92.8</v>
+      </c>
+      <c r="H51" s="1">
+        <v>76</v>
+      </c>
+      <c r="I51" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="J51" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="K51" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="L51" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="M51" s="1">
+        <v>33.1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>77</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52">
-        <f>ABS(B$40-B42)</f>
-        <v>26.899999999999991</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:N52" si="20">ABS(C$40-C42)</f>
-        <v>25</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="20"/>
+        <v>153</v>
+      </c>
+      <c r="B52" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C52" s="1">
+        <v>96</v>
+      </c>
+      <c r="D52" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="F52" s="1">
         <v>76.5</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="20"/>
-        <v>20.9</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="20"/>
-        <v>4.6000000000000014</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="20"/>
-        <v>30.799999999999997</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="20"/>
-        <v>61</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="20"/>
-        <v>75.2</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="20"/>
-        <v>9.0999999999999943</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="20"/>
-        <v>45.4</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="20"/>
-        <v>36.5</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="20"/>
-        <v>8.6000000000000085</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="20"/>
-        <v>14.5</v>
+      <c r="G52" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="H52" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="I52" s="1">
+        <v>47</v>
+      </c>
+      <c r="J52" s="1">
+        <v>87.1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="M52" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="N52" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ref="B53:N60" si="21">ABS(B$40-B43)</f>
-        <v>15.399999999999991</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="21"/>
+        <v>154</v>
+      </c>
+      <c r="B53" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C53" s="1">
+        <v>68.8</v>
+      </c>
+      <c r="D53" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="G53" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="I53" s="1">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="J53" s="1">
+        <v>94.6</v>
+      </c>
+      <c r="K53" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="L53" s="1">
+        <v>100</v>
+      </c>
+      <c r="M53" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="N53" s="1">
+        <v>100</v>
+      </c>
+      <c r="O53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1">
+        <f>MAX(B45:B53)</f>
+        <v>79.900000000000006</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ref="C54:M54" si="25">MAX(C45:C53)</f>
+        <v>99.9</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="25"/>
+        <v>93.7</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="25"/>
+        <v>72</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="25"/>
+        <v>76.5</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="25"/>
+        <v>99.6</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="25"/>
+        <v>94.5</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="25"/>
+        <v>99.2</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="25"/>
+        <v>96.4</v>
+      </c>
+      <c r="N54" s="1">
+        <f>MAX(N45:N53)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1">
+        <f>B54-B43</f>
+        <v>8.3000000000000114</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" ref="C55:J55" si="26">C54-C43</f>
         <v>28.900000000000006</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="21"/>
-        <v>27.799999999999997</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="21"/>
-        <v>5.3999999999999986</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="21"/>
-        <v>23.9</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="21"/>
-        <v>9.3999999999999915</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="21"/>
-        <v>26.200000000000003</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="21"/>
-        <v>17.599999999999994</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="21"/>
-        <v>43.9</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="21"/>
-        <v>57.3</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="21"/>
-        <v>14.600000000000009</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="21"/>
-        <v>34.100000000000009</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="21"/>
-        <v>20.999999999999993</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="21"/>
-        <v>22.099999999999994</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="21"/>
-        <v>33.9</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="21"/>
-        <v>3.6000000000000014</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="21"/>
-        <v>21.9</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="21"/>
-        <v>12.700000000000003</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="21"/>
-        <v>0.20000000000000284</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="21"/>
-        <v>34.5</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="21"/>
-        <v>3.7999999999999972</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="21"/>
+      <c r="D55" s="1">
+        <f t="shared" si="26"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="26"/>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="26"/>
+        <v>29.5</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="26"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="26"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="26"/>
+        <v>-1.7000000000000028</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="26"/>
+        <v>8.1000000000000085</v>
+      </c>
+      <c r="K55" s="1">
+        <f>K54-K43</f>
         <v>20</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="21"/>
-        <v>59.5</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="21"/>
+      <c r="L55" s="1">
+        <f t="shared" ref="L55" si="27">L54-L43</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" ref="M55" si="28">M54-M43</f>
         <v>1.5</v>
       </c>
-      <c r="N54">
-        <f t="shared" si="21"/>
-        <v>30.100000000000009</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="21"/>
-        <v>19.999999999999993</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="21"/>
-        <v>4.2999999999999972</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="21"/>
-        <v>15.799999999999997</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="21"/>
-        <v>14.200000000000003</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="21"/>
-        <v>2.8999999999999986</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="21"/>
-        <v>1.5</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="21"/>
-        <v>40.5</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="21"/>
-        <v>24.299999999999997</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="21"/>
-        <v>12.199999999999989</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="21"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="21"/>
-        <v>12.400000000000006</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="21"/>
-        <v>16</v>
+      <c r="N55" s="1">
+        <f t="shared" ref="N55" si="29">N54-N43</f>
+        <v>1.0999999999999943</v>
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="21"/>
-        <v>12.399999999999991</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="21"/>
-        <v>1.2999999999999972</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="21"/>
-        <v>2.4000000000000057</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="21"/>
-        <v>11.899999999999999</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="21"/>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="21"/>
-        <v>13.200000000000003</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="21"/>
-        <v>28.200000000000003</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="21"/>
-        <v>1.7000000000000028</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="21"/>
-        <v>3.1000000000000085</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="21"/>
-        <v>39.5</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="21"/>
-        <v>9.9000000000000057</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="21"/>
-        <v>1.8000000000000114</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="21"/>
-        <v>1</v>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6</v>
+      </c>
+      <c r="I56" s="1">
+        <v>18</v>
+      </c>
+      <c r="J56" s="1">
+        <v>30</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="M56" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O56">
+        <f>SUM(B56:N56)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="21"/>
-        <v>29.399999999999991</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="21"/>
-        <v>14.200000000000003</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="21"/>
-        <v>46.699999999999996</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="21"/>
-        <v>8.8999999999999986</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="21"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="21"/>
-        <v>9.2999999999999972</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="21"/>
-        <v>27.899999999999991</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="21"/>
-        <v>42.2</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="21"/>
-        <v>8.1000000000000085</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="21"/>
-        <v>10.400000000000006</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="21"/>
-        <v>20.200000000000003</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="21"/>
-        <v>35.500000000000007</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="21"/>
-        <v>53.500000000000007</v>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1">
+        <f>B56*B55</f>
+        <v>18.675000000000026</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:K57" si="30">C56*C55</f>
+        <v>173.40000000000003</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="30"/>
+        <v>36.000000000000085</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="30"/>
+        <v>20.024999999999999</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="30"/>
+        <v>132.75</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="30"/>
+        <v>79.200000000000017</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="30"/>
+        <v>-1.2000000000000171</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="30"/>
+        <v>-30.600000000000051</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="30"/>
+        <v>243.00000000000026</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="30"/>
+        <v>50</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" ref="L57" si="31">L56*L55</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" ref="M57" si="32">M56*M55</f>
+        <v>3.75</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" ref="N57" si="33">N56*N55</f>
+        <v>2.7499999999999858</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="21"/>
-        <v>25.799999999999997</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="21"/>
-        <v>6.2999999999999972</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="21"/>
-        <v>17.399999999999991</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="21"/>
-        <v>6.9999999999999929</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="21"/>
-        <v>7.6000000000000014</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="21"/>
-        <v>23.799999999999997</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="21"/>
-        <v>17.100000000000009</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="21"/>
-        <v>4.2999999999999972</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="21"/>
-        <v>27.200000000000003</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="21"/>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="21"/>
-        <v>61.800000000000004</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="21"/>
-        <v>21.900000000000006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="21"/>
-        <v>32.399999999999991</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="21"/>
-        <v>23.799999999999997</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="21"/>
-        <v>20.300000000000004</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="21"/>
-        <v>29.5</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="21"/>
-        <v>30.5</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="21"/>
-        <v>58.5</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="21"/>
-        <v>49.2</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="21"/>
-        <v>42.9</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="21"/>
-        <v>11.5</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="21"/>
-        <v>3.1000000000000085</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="21"/>
-        <v>22.600000000000009</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B60">
-        <f t="shared" si="21"/>
-        <v>8.3000000000000114</v>
+        <f>ABS(B$43-B45)</f>
+        <v>26.899999999999991</v>
       </c>
       <c r="C60">
-        <f t="shared" si="21"/>
-        <v>2.2000000000000028</v>
+        <f t="shared" ref="C60:N60" si="34">ABS(C$43-C45)</f>
+        <v>25</v>
       </c>
       <c r="D60">
-        <f t="shared" si="21"/>
-        <v>34.799999999999997</v>
+        <f t="shared" si="34"/>
+        <v>76.5</v>
       </c>
       <c r="E60">
-        <f t="shared" si="21"/>
-        <v>8</v>
+        <f t="shared" si="34"/>
+        <v>20.9</v>
       </c>
       <c r="F60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="34"/>
+        <v>30.799999999999997</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="34"/>
+        <v>61</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="34"/>
+        <v>75.2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="34"/>
+        <v>9.0999999999999943</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="34"/>
+        <v>45.4</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="34"/>
+        <v>36.5</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="34"/>
+        <v>8.6000000000000085</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="34"/>
         <v>14.5</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="21"/>
-        <v>30.599999999999994</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="21"/>
-        <v>16.099999999999994</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="21"/>
-        <v>30.299999999999997</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="21"/>
-        <v>3.5</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="21"/>
-        <v>14.599999999999994</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="21"/>
-        <v>0.79999999999999716</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="21"/>
-        <v>1.0999999999999943</v>
-      </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="B61" s="15">
-        <f>AVERAGE(B52:B60)</f>
-        <v>21.288888888888884</v>
-      </c>
-      <c r="C61" s="15">
-        <f t="shared" ref="C61:K61" si="22">AVERAGE(C52:C60)</f>
-        <v>14.366666666666667</v>
-      </c>
-      <c r="D61" s="15">
-        <f t="shared" si="22"/>
-        <v>31.011111111111113</v>
-      </c>
-      <c r="E61" s="15">
-        <f t="shared" si="22"/>
-        <v>11.133333333333335</v>
-      </c>
-      <c r="F61" s="15">
-        <f t="shared" si="22"/>
-        <v>14.955555555555556</v>
-      </c>
-      <c r="G61" s="15">
-        <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="H61" s="15">
-        <f t="shared" si="22"/>
-        <v>28.688888888888894</v>
-      </c>
-      <c r="I61" s="15">
-        <f t="shared" si="22"/>
-        <v>33.411111111111111</v>
-      </c>
-      <c r="J61" s="15">
-        <f t="shared" si="22"/>
-        <v>7.2999999999999989</v>
-      </c>
-      <c r="K61" s="15">
-        <f t="shared" si="22"/>
-        <v>31.511111111111113</v>
-      </c>
-      <c r="L61" s="15">
-        <f>AVERAGE(L52:L60)</f>
-        <v>31.099999999999998</v>
-      </c>
-      <c r="M61" s="15">
-        <f t="shared" ref="M61" si="23">AVERAGE(M52:M60)</f>
-        <v>15.188888888888894</v>
-      </c>
-      <c r="N61" s="15">
-        <f t="shared" ref="N61" si="24">AVERAGE(N52:N60)</f>
-        <v>21.644444444444449</v>
+      <c r="A61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61">
+        <f>ABS(B$43-B46)</f>
+        <v>15.399999999999991</v>
+      </c>
+      <c r="C61">
+        <f>ABS(C$43-C46)</f>
+        <v>28.900000000000006</v>
+      </c>
+      <c r="D61">
+        <f>ABS(D$43-D46)</f>
+        <v>27.799999999999997</v>
+      </c>
+      <c r="E61">
+        <f>ABS(E$43-E46)</f>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="F61">
+        <f>ABS(F$43-F46)</f>
+        <v>23.9</v>
+      </c>
+      <c r="G61">
+        <f>ABS(G$43-G46)</f>
+        <v>9.3999999999999915</v>
+      </c>
+      <c r="H61">
+        <f>ABS(H$43-H46)</f>
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <f>ABS(I$43-I46)</f>
+        <v>26.200000000000003</v>
+      </c>
+      <c r="J61">
+        <f>ABS(J$43-J46)</f>
+        <v>17.599999999999994</v>
+      </c>
+      <c r="K61">
+        <f>ABS(K$43-K46)</f>
+        <v>43.9</v>
+      </c>
+      <c r="L61">
+        <f>ABS(L$43-L46)</f>
+        <v>57.3</v>
+      </c>
+      <c r="M61">
+        <f>ABS(M$43-M46)</f>
+        <v>14.600000000000009</v>
+      </c>
+      <c r="N61">
+        <f>ABS(N$43-N46)</f>
+        <v>34.100000000000009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62">
+        <f>ABS(B$43-B47)</f>
+        <v>20.999999999999993</v>
+      </c>
+      <c r="C62">
+        <f>ABS(C$43-C47)</f>
+        <v>22.099999999999994</v>
+      </c>
+      <c r="D62">
+        <f>ABS(D$43-D47)</f>
+        <v>33.9</v>
+      </c>
+      <c r="E62">
+        <f>ABS(E$43-E47)</f>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="F62">
+        <f>ABS(F$43-F47)</f>
+        <v>21.9</v>
+      </c>
+      <c r="G62">
+        <f>ABS(G$43-G47)</f>
+        <v>12.700000000000003</v>
+      </c>
+      <c r="H62">
+        <f>ABS(H$43-H47)</f>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="I62">
+        <f>ABS(I$43-I47)</f>
+        <v>34.5</v>
+      </c>
+      <c r="J62">
+        <f>ABS(J$43-J47)</f>
+        <v>3.7999999999999972</v>
+      </c>
+      <c r="K62">
+        <f>ABS(K$43-K47)</f>
+        <v>20</v>
+      </c>
+      <c r="L62">
+        <f>ABS(L$43-L47)</f>
+        <v>59.5</v>
+      </c>
+      <c r="M62">
+        <f>ABS(M$43-M47)</f>
+        <v>1.5</v>
+      </c>
+      <c r="N62">
+        <f>ABS(N$43-N47)</f>
+        <v>30.100000000000009</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B63" s="10">
-        <f>1-(B52/B$40)</f>
-        <v>0.62430167597765374</v>
-      </c>
-      <c r="C63" s="10">
-        <f t="shared" ref="C63:N63" si="25">1-(C52/C$40)</f>
-        <v>0.647887323943662</v>
-      </c>
-      <c r="D63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.16210295728368018</v>
-      </c>
-      <c r="E63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.66877971473851039</v>
-      </c>
-      <c r="F63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.90212765957446805</v>
-      </c>
-      <c r="G63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.64516129032258074</v>
-      </c>
-      <c r="H63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.38877755511022039</v>
-      </c>
-      <c r="I63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.21829521829521825</v>
-      </c>
-      <c r="J63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.9001097694840835</v>
-      </c>
-      <c r="K63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.4325</v>
-      </c>
-      <c r="L63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="M63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.90937829293993666</v>
-      </c>
-      <c r="N63" s="10">
-        <f t="shared" si="25"/>
-        <v>0.85338725985844288</v>
-      </c>
-      <c r="O63" s="13">
-        <f>AVERAGE(B63:N63)</f>
-        <v>0.61444682442526577</v>
+        <v>149</v>
+      </c>
+      <c r="B63">
+        <f>ABS(B$43-B48)</f>
+        <v>19.999999999999993</v>
+      </c>
+      <c r="C63">
+        <f>ABS(C$43-C48)</f>
+        <v>4.2999999999999972</v>
+      </c>
+      <c r="D63">
+        <f>ABS(D$43-D48)</f>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="E63">
+        <f>ABS(E$43-E48)</f>
+        <v>14.200000000000003</v>
+      </c>
+      <c r="F63">
+        <f>ABS(F$43-F48)</f>
+        <v>2.8999999999999986</v>
+      </c>
+      <c r="G63">
+        <f>ABS(G$43-G48)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H63">
+        <f>ABS(H$43-H48)</f>
+        <v>40.5</v>
+      </c>
+      <c r="I63">
+        <f>ABS(I$43-I48)</f>
+        <v>24.299999999999997</v>
+      </c>
+      <c r="J63">
+        <f>ABS(J$43-J48)</f>
+        <v>12.199999999999989</v>
+      </c>
+      <c r="K63">
+        <f>ABS(K$43-K48)</f>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L63">
+        <f>ABS(L$43-L48)</f>
+        <v>12.400000000000006</v>
+      </c>
+      <c r="M63">
+        <f>ABS(M$43-M48)</f>
+        <v>9</v>
+      </c>
+      <c r="N63">
+        <f>ABS(N$43-N48)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="10">
-        <f t="shared" ref="B64:N71" si="26">1-(B53/B$40)</f>
-        <v>0.78491620111731852</v>
-      </c>
-      <c r="C64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.59295774647887312</v>
-      </c>
-      <c r="D64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.69550930996714133</v>
-      </c>
-      <c r="E64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.91442155309033279</v>
-      </c>
-      <c r="F64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.49148936170212765</v>
-      </c>
-      <c r="G64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.89170506912442404</v>
-      </c>
-      <c r="H64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.97995991983967934</v>
-      </c>
-      <c r="I64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.72765072765072758</v>
-      </c>
-      <c r="J64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.80680570801317242</v>
-      </c>
-      <c r="K64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.45125000000000004</v>
-      </c>
-      <c r="L64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.42700000000000005</v>
-      </c>
-      <c r="M64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.84615384615384603</v>
-      </c>
-      <c r="N64" s="10">
-        <f t="shared" si="26"/>
-        <v>0.65520728008088969</v>
-      </c>
-      <c r="O64" s="13">
-        <f t="shared" ref="O64:O71" si="27">AVERAGE(B64:N64)</f>
-        <v>0.71269436332450253</v>
+        <v>150</v>
+      </c>
+      <c r="B64">
+        <f>ABS(B$43-B49)</f>
+        <v>12.399999999999991</v>
+      </c>
+      <c r="C64">
+        <f>ABS(C$43-C49)</f>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="D64">
+        <f>ABS(D$43-D49)</f>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="E64">
+        <f>ABS(E$43-E49)</f>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="F64">
+        <f>ABS(F$43-F49)</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="G64">
+        <f>ABS(G$43-G49)</f>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="H64">
+        <f>ABS(H$43-H49)</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I64">
+        <f>ABS(I$43-I49)</f>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="J64">
+        <f>ABS(J$43-J49)</f>
+        <v>3.1000000000000085</v>
+      </c>
+      <c r="K64">
+        <f>ABS(K$43-K49)</f>
+        <v>39.5</v>
+      </c>
+      <c r="L64">
+        <f>ABS(L$43-L49)</f>
+        <v>9.9000000000000057</v>
+      </c>
+      <c r="M64">
+        <f>ABS(M$43-M49)</f>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="N64">
+        <f>ABS(N$43-N49)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.7067039106145252</v>
-      </c>
-      <c r="C65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.68873239436619726</v>
-      </c>
-      <c r="D65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.62869660460021914</v>
-      </c>
-      <c r="E65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.94294770206022183</v>
-      </c>
-      <c r="F65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.53404255319148941</v>
-      </c>
-      <c r="G65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.8536866359447004</v>
-      </c>
-      <c r="H65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.99799599198396793</v>
-      </c>
-      <c r="I65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.64137214137214138</v>
-      </c>
-      <c r="J65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.95828759604829861</v>
-      </c>
-      <c r="K65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.75</v>
-      </c>
-      <c r="L65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="M65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.98419388830347732</v>
-      </c>
-      <c r="N65" s="10">
-        <f t="shared" si="26"/>
-        <v>0.69565217391304346</v>
-      </c>
-      <c r="O65" s="13">
-        <f t="shared" si="27"/>
-        <v>0.75287012249217555</v>
+        <v>151</v>
+      </c>
+      <c r="B65">
+        <f>ABS(B$43-B50)</f>
+        <v>29.399999999999991</v>
+      </c>
+      <c r="C65">
+        <f>ABS(C$43-C50)</f>
+        <v>14.200000000000003</v>
+      </c>
+      <c r="D65">
+        <f>ABS(D$43-D50)</f>
+        <v>46.699999999999996</v>
+      </c>
+      <c r="E65">
+        <f>ABS(E$43-E50)</f>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="F65">
+        <f>ABS(F$43-F50)</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G65">
+        <f>ABS(G$43-G50)</f>
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="H65">
+        <f>ABS(H$43-H50)</f>
+        <v>27.899999999999991</v>
+      </c>
+      <c r="I65">
+        <f>ABS(I$43-I50)</f>
+        <v>42.2</v>
+      </c>
+      <c r="J65">
+        <f>ABS(J$43-J50)</f>
+        <v>8.1000000000000085</v>
+      </c>
+      <c r="K65">
+        <f>ABS(K$43-K50)</f>
+        <v>10.400000000000006</v>
+      </c>
+      <c r="L65">
+        <f>ABS(L$43-L50)</f>
+        <v>20.200000000000003</v>
+      </c>
+      <c r="M65">
+        <f>ABS(M$43-M50)</f>
+        <v>35.500000000000007</v>
+      </c>
+      <c r="N65">
+        <f>ABS(N$43-N50)</f>
+        <v>53.500000000000007</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.72067039106145259</v>
-      </c>
-      <c r="C66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.93943661971830994</v>
-      </c>
-      <c r="D66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.82694414019715223</v>
-      </c>
-      <c r="E66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.77496038034865289</v>
-      </c>
-      <c r="F66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.93829787234042561</v>
-      </c>
-      <c r="G66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.98271889400921664</v>
-      </c>
-      <c r="H66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.594188376753507</v>
-      </c>
-      <c r="I66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.74740124740124747</v>
-      </c>
-      <c r="J66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.86608122941822185</v>
-      </c>
-      <c r="K66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.50374999999999992</v>
-      </c>
-      <c r="L66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.87599999999999989</v>
-      </c>
-      <c r="M66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.90516332982086412</v>
-      </c>
-      <c r="N66" s="10">
-        <f t="shared" si="26"/>
-        <v>0.83822042467138524</v>
-      </c>
-      <c r="O66" s="13">
-        <f t="shared" si="27"/>
-        <v>0.80875637736464911</v>
+        <v>152</v>
+      </c>
+      <c r="B66">
+        <f>ABS(B$43-B51)</f>
+        <v>25.799999999999997</v>
+      </c>
+      <c r="C66">
+        <f>ABS(C$43-C51)</f>
+        <v>6.2999999999999972</v>
+      </c>
+      <c r="D66">
+        <f>ABS(D$43-D51)</f>
+        <v>17.399999999999991</v>
+      </c>
+      <c r="E66">
+        <f>ABS(E$43-E51)</f>
+        <v>6.9999999999999929</v>
+      </c>
+      <c r="F66">
+        <f>ABS(F$43-F51)</f>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="G66">
+        <f>ABS(G$43-G51)</f>
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <f>ABS(H$43-H51)</f>
+        <v>23.799999999999997</v>
+      </c>
+      <c r="I66">
+        <f>ABS(I$43-I51)</f>
+        <v>17.100000000000009</v>
+      </c>
+      <c r="J66">
+        <f>ABS(J$43-J51)</f>
+        <v>4.2999999999999972</v>
+      </c>
+      <c r="K66">
+        <f>ABS(K$43-K51)</f>
+        <v>27.200000000000003</v>
+      </c>
+      <c r="L66">
+        <f>ABS(L$43-L51)</f>
+        <v>72.599999999999994</v>
+      </c>
+      <c r="M66">
+        <f>ABS(M$43-M51)</f>
+        <v>61.800000000000004</v>
+      </c>
+      <c r="N66">
+        <f>ABS(N$43-N51)</f>
+        <v>21.900000000000006</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.82681564245810069</v>
-      </c>
-      <c r="C67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.98169014084507045</v>
-      </c>
-      <c r="D67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.97371303395399778</v>
-      </c>
-      <c r="E67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.81141045958795566</v>
-      </c>
-      <c r="F67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.71063829787234045</v>
-      </c>
-      <c r="G67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.84792626728110598</v>
-      </c>
-      <c r="H67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.7174348697394789</v>
-      </c>
-      <c r="I67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.98232848232848236</v>
-      </c>
-      <c r="J67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.96597145993413824</v>
-      </c>
-      <c r="K67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.50624999999999998</v>
-      </c>
-      <c r="L67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.90099999999999991</v>
-      </c>
-      <c r="M67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.98103266596417271</v>
-      </c>
-      <c r="N67" s="10">
-        <f t="shared" si="26"/>
-        <v>0.98988877654196161</v>
-      </c>
-      <c r="O67" s="13">
-        <f t="shared" si="27"/>
-        <v>0.86123846896206202</v>
+        <v>153</v>
+      </c>
+      <c r="B67">
+        <f>ABS(B$43-B52)</f>
+        <v>32.399999999999991</v>
+      </c>
+      <c r="C67">
+        <f>ABS(C$43-C52)</f>
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <f>ABS(D$43-D52)</f>
+        <v>23.799999999999997</v>
+      </c>
+      <c r="E67">
+        <f>ABS(E$43-E52)</f>
+        <v>20.300000000000004</v>
+      </c>
+      <c r="F67">
+        <f>ABS(F$43-F52)</f>
+        <v>29.5</v>
+      </c>
+      <c r="G67">
+        <f>ABS(G$43-G52)</f>
+        <v>30.5</v>
+      </c>
+      <c r="H67">
+        <f>ABS(H$43-H52)</f>
+        <v>58.5</v>
+      </c>
+      <c r="I67">
+        <f>ABS(I$43-I52)</f>
+        <v>49.2</v>
+      </c>
+      <c r="J67">
+        <f>ABS(J$43-J52)</f>
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <f>ABS(K$43-K52)</f>
+        <v>42.9</v>
+      </c>
+      <c r="L67">
+        <f>ABS(L$43-L52)</f>
+        <v>11.5</v>
+      </c>
+      <c r="M67">
+        <f>ABS(M$43-M52)</f>
+        <v>3.1000000000000085</v>
+      </c>
+      <c r="N67">
+        <f>ABS(N$43-N52)</f>
+        <v>22.600000000000009</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.58938547486033532</v>
-      </c>
-      <c r="C68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="D68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.48849945235487402</v>
-      </c>
-      <c r="E68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.85895404120443741</v>
-      </c>
-      <c r="F68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.65744680851063819</v>
-      </c>
-      <c r="G68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="H68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.72044088176352705</v>
-      </c>
-      <c r="I68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.56133056133056125</v>
-      </c>
-      <c r="J68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.91108671789242579</v>
-      </c>
-      <c r="K68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.86999999999999988</v>
-      </c>
-      <c r="L68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.79799999999999993</v>
-      </c>
-      <c r="M68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.62592202318229706</v>
-      </c>
-      <c r="N68" s="10">
-        <f t="shared" si="26"/>
-        <v>0.45904954499494433</v>
-      </c>
-      <c r="O68" s="13">
-        <f t="shared" si="27"/>
-        <v>0.71022866530393713</v>
+        <v>154</v>
+      </c>
+      <c r="B68">
+        <f>ABS(B$43-B53)</f>
+        <v>8.3000000000000114</v>
+      </c>
+      <c r="C68">
+        <f>ABS(C$43-C53)</f>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="D68">
+        <f>ABS(D$43-D53)</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E68">
+        <f>ABS(E$43-E53)</f>
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <f>ABS(F$43-F53)</f>
+        <v>14.5</v>
+      </c>
+      <c r="G68">
+        <f>ABS(G$43-G53)</f>
+        <v>30.599999999999994</v>
+      </c>
+      <c r="H68">
+        <f>ABS(H$43-H53)</f>
+        <v>16.099999999999994</v>
+      </c>
+      <c r="I68">
+        <f>ABS(I$43-I53)</f>
+        <v>30.299999999999997</v>
+      </c>
+      <c r="J68">
+        <f>ABS(J$43-J53)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K68">
+        <f>ABS(K$43-K53)</f>
+        <v>14.599999999999994</v>
+      </c>
+      <c r="L68">
+        <f>ABS(L$43-L53)</f>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f>ABS(M$43-M53)</f>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="N68">
+        <f>ABS(N$43-N53)</f>
+        <v>1.0999999999999943</v>
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.63966480446927376</v>
-      </c>
-      <c r="C69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.91126760563380282</v>
-      </c>
-      <c r="D69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.80941949616648423</v>
-      </c>
-      <c r="E69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.88906497622820935</v>
-      </c>
-      <c r="F69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.83829787234042552</v>
-      </c>
-      <c r="G69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.93087557603686633</v>
-      </c>
-      <c r="H69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.76152304609218435</v>
-      </c>
-      <c r="I69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.8222453222453221</v>
-      </c>
-      <c r="J69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.95279912184412741</v>
-      </c>
-      <c r="K69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="L69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="M69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.34878819810326656</v>
-      </c>
-      <c r="N69" s="10">
-        <f t="shared" si="26"/>
-        <v>0.7785642062689585</v>
-      </c>
-      <c r="O69" s="13">
-        <f t="shared" si="27"/>
-        <v>0.73973155580222472</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.54748603351955316</v>
-      </c>
-      <c r="C70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.647887323943662</v>
-      </c>
-      <c r="D70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.73932092004381156</v>
-      </c>
-      <c r="E70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.67828843106180658</v>
-      </c>
-      <c r="F70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.37234042553191493</v>
-      </c>
-      <c r="G70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.64861751152073732</v>
-      </c>
-      <c r="H70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.41382765531062127</v>
-      </c>
-      <c r="I70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.48856548856548854</v>
-      </c>
-      <c r="J70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.95609220636663006</v>
-      </c>
-      <c r="K70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.46375</v>
-      </c>
-      <c r="L70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="M70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.96733403582718647</v>
-      </c>
-      <c r="N70" s="10">
-        <f t="shared" si="26"/>
-        <v>0.77148634984833153</v>
-      </c>
-      <c r="O70" s="13">
-        <f t="shared" si="27"/>
-        <v>0.65999972165690335</v>
+      <c r="B69" s="15">
+        <f>AVERAGE(B60:B68)</f>
+        <v>21.288888888888884</v>
+      </c>
+      <c r="C69" s="15">
+        <f t="shared" ref="C69:K69" si="35">AVERAGE(C60:C68)</f>
+        <v>14.366666666666667</v>
+      </c>
+      <c r="D69" s="15">
+        <f t="shared" si="35"/>
+        <v>31.011111111111113</v>
+      </c>
+      <c r="E69" s="15">
+        <f t="shared" si="35"/>
+        <v>11.133333333333335</v>
+      </c>
+      <c r="F69" s="15">
+        <f t="shared" si="35"/>
+        <v>14.955555555555556</v>
+      </c>
+      <c r="G69" s="15">
+        <f t="shared" si="35"/>
+        <v>16</v>
+      </c>
+      <c r="H69" s="15">
+        <f t="shared" si="35"/>
+        <v>28.688888888888894</v>
+      </c>
+      <c r="I69" s="15">
+        <f t="shared" si="35"/>
+        <v>33.411111111111111</v>
+      </c>
+      <c r="J69" s="15">
+        <f t="shared" si="35"/>
+        <v>7.2999999999999989</v>
+      </c>
+      <c r="K69" s="15">
+        <f t="shared" si="35"/>
+        <v>31.511111111111113</v>
+      </c>
+      <c r="L69" s="15">
+        <f>AVERAGE(L60:L68)</f>
+        <v>31.099999999999998</v>
+      </c>
+      <c r="M69" s="15">
+        <f t="shared" ref="M69" si="36">AVERAGE(M60:M68)</f>
+        <v>15.188888888888894</v>
+      </c>
+      <c r="N69" s="15">
+        <f t="shared" ref="N69" si="37">AVERAGE(N60:N68)</f>
+        <v>21.644444444444449</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="10">
+        <f>1-(B60/B$43)</f>
+        <v>0.62430167597765374</v>
+      </c>
+      <c r="C71" s="10">
+        <f t="shared" ref="C71:N71" si="38">1-(C60/C$43)</f>
+        <v>0.647887323943662</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.16210295728368018</v>
+      </c>
+      <c r="E71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.66877971473851039</v>
+      </c>
+      <c r="F71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.90212765957446805</v>
+      </c>
+      <c r="G71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.64516129032258074</v>
+      </c>
+      <c r="H71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.38877755511022039</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.21829521829521825</v>
+      </c>
+      <c r="J71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.9001097694840835</v>
+      </c>
+      <c r="K71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.4325</v>
+      </c>
+      <c r="L71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="M71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.90937829293993666</v>
+      </c>
+      <c r="N71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.85338725985844288</v>
+      </c>
+      <c r="O71" s="13">
+        <f>AVERAGE(B71:N71)</f>
+        <v>0.61444682442526577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="10">
+        <f t="shared" ref="B72:N79" si="39">1-(B61/B$43)</f>
+        <v>0.78491620111731852</v>
+      </c>
+      <c r="C72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.59295774647887312</v>
+      </c>
+      <c r="D72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.69550930996714133</v>
+      </c>
+      <c r="E72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.91442155309033279</v>
+      </c>
+      <c r="F72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.49148936170212765</v>
+      </c>
+      <c r="G72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.89170506912442404</v>
+      </c>
+      <c r="H72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.97995991983967934</v>
+      </c>
+      <c r="I72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.72765072765072758</v>
+      </c>
+      <c r="J72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.80680570801317242</v>
+      </c>
+      <c r="K72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.45125000000000004</v>
+      </c>
+      <c r="L72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.42700000000000005</v>
+      </c>
+      <c r="M72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="N72" s="10">
+        <f t="shared" si="39"/>
+        <v>0.65520728008088969</v>
+      </c>
+      <c r="O72" s="13">
+        <f t="shared" ref="O72:O79" si="40">AVERAGE(B72:N72)</f>
+        <v>0.71269436332450253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.7067039106145252</v>
+      </c>
+      <c r="C73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.68873239436619726</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.62869660460021914</v>
+      </c>
+      <c r="E73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.94294770206022183</v>
+      </c>
+      <c r="F73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.53404255319148941</v>
+      </c>
+      <c r="G73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.8536866359447004</v>
+      </c>
+      <c r="H73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.99799599198396793</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.64137214137214138</v>
+      </c>
+      <c r="J73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.95828759604829861</v>
+      </c>
+      <c r="K73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.75</v>
+      </c>
+      <c r="L73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.98419388830347732</v>
+      </c>
+      <c r="N73" s="10">
+        <f t="shared" si="39"/>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="O73" s="13">
+        <f t="shared" si="40"/>
+        <v>0.75287012249217555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.72067039106145259</v>
+      </c>
+      <c r="C74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.93943661971830994</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.82694414019715223</v>
+      </c>
+      <c r="E74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.77496038034865289</v>
+      </c>
+      <c r="F74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.93829787234042561</v>
+      </c>
+      <c r="G74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.98271889400921664</v>
+      </c>
+      <c r="H74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.594188376753507</v>
+      </c>
+      <c r="I74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.74740124740124747</v>
+      </c>
+      <c r="J74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.86608122941822185</v>
+      </c>
+      <c r="K74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.50374999999999992</v>
+      </c>
+      <c r="L74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.87599999999999989</v>
+      </c>
+      <c r="M74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.90516332982086412</v>
+      </c>
+      <c r="N74" s="10">
+        <f t="shared" si="39"/>
+        <v>0.83822042467138524</v>
+      </c>
+      <c r="O74" s="13">
+        <f t="shared" si="40"/>
+        <v>0.80875637736464911</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.82681564245810069</v>
+      </c>
+      <c r="C75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.98169014084507045</v>
+      </c>
+      <c r="D75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.97371303395399778</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.81141045958795566</v>
+      </c>
+      <c r="F75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.71063829787234045</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.84792626728110598</v>
+      </c>
+      <c r="H75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.7174348697394789</v>
+      </c>
+      <c r="I75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.98232848232848236</v>
+      </c>
+      <c r="J75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.96597145993413824</v>
+      </c>
+      <c r="K75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="L75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.90099999999999991</v>
+      </c>
+      <c r="M75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.98103266596417271</v>
+      </c>
+      <c r="N75" s="10">
+        <f t="shared" si="39"/>
+        <v>0.98988877654196161</v>
+      </c>
+      <c r="O75" s="13">
+        <f t="shared" si="40"/>
+        <v>0.86123846896206202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.58938547486033532</v>
+      </c>
+      <c r="C76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="D76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.48849945235487402</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.85895404120443741</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.65744680851063819</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.72044088176352705</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.56133056133056125</v>
+      </c>
+      <c r="J76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.91108671789242579</v>
+      </c>
+      <c r="K76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="L76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.79799999999999993</v>
+      </c>
+      <c r="M76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.62592202318229706</v>
+      </c>
+      <c r="N76" s="10">
+        <f t="shared" si="39"/>
+        <v>0.45904954499494433</v>
+      </c>
+      <c r="O76" s="13">
+        <f t="shared" si="40"/>
+        <v>0.71022866530393713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.63966480446927376</v>
+      </c>
+      <c r="C77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.91126760563380282</v>
+      </c>
+      <c r="D77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.80941949616648423</v>
+      </c>
+      <c r="E77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.88906497622820935</v>
+      </c>
+      <c r="F77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.83829787234042552</v>
+      </c>
+      <c r="G77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.93087557603686633</v>
+      </c>
+      <c r="H77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.76152304609218435</v>
+      </c>
+      <c r="I77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.8222453222453221</v>
+      </c>
+      <c r="J77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.95279912184412741</v>
+      </c>
+      <c r="K77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="L77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.34878819810326656</v>
+      </c>
+      <c r="N77" s="10">
+        <f t="shared" si="39"/>
+        <v>0.7785642062689585</v>
+      </c>
+      <c r="O77" s="13">
+        <f t="shared" si="40"/>
+        <v>0.73973155580222472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.54748603351955316</v>
+      </c>
+      <c r="C78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.647887323943662</v>
+      </c>
+      <c r="D78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.73932092004381156</v>
+      </c>
+      <c r="E78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.67828843106180658</v>
+      </c>
+      <c r="F78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.37234042553191493</v>
+      </c>
+      <c r="G78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.64861751152073732</v>
+      </c>
+      <c r="H78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.41382765531062127</v>
+      </c>
+      <c r="I78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.48856548856548854</v>
+      </c>
+      <c r="J78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.95609220636663006</v>
+      </c>
+      <c r="K78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.46375</v>
+      </c>
+      <c r="L78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="M78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.96733403582718647</v>
+      </c>
+      <c r="N78" s="10">
+        <f t="shared" si="39"/>
+        <v>0.77148634984833153</v>
+      </c>
+      <c r="O78" s="13">
+        <f t="shared" si="40"/>
+        <v>0.65999972165690335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="10">
-        <f t="shared" si="26"/>
+      <c r="B79" s="10">
+        <f t="shared" si="39"/>
         <v>0.88407821229050265</v>
       </c>
-      <c r="C71" s="10">
-        <f t="shared" si="26"/>
+      <c r="C79" s="10">
+        <f t="shared" si="39"/>
         <v>0.96901408450704218</v>
       </c>
-      <c r="D71" s="10">
-        <f t="shared" si="26"/>
+      <c r="D79" s="10">
+        <f t="shared" si="39"/>
         <v>0.61883899233296824</v>
       </c>
-      <c r="E71" s="10">
-        <f t="shared" si="26"/>
+      <c r="E79" s="10">
+        <f t="shared" si="39"/>
         <v>0.87321711568938198</v>
       </c>
-      <c r="F71" s="10">
-        <f t="shared" si="26"/>
+      <c r="F79" s="10">
+        <f t="shared" si="39"/>
         <v>0.6914893617021276</v>
       </c>
-      <c r="G71" s="10">
-        <f t="shared" si="26"/>
+      <c r="G79" s="10">
+        <f t="shared" si="39"/>
         <v>0.64746543778801846</v>
       </c>
-      <c r="H71" s="10">
-        <f t="shared" si="26"/>
+      <c r="H79" s="10">
+        <f t="shared" si="39"/>
         <v>0.83867735470941884</v>
       </c>
-      <c r="I71" s="10">
-        <f t="shared" si="26"/>
+      <c r="I79" s="10">
+        <f t="shared" si="39"/>
         <v>0.6850311850311851</v>
       </c>
-      <c r="J71" s="10">
-        <f t="shared" si="26"/>
+      <c r="J79" s="10">
+        <f t="shared" si="39"/>
         <v>0.96158068057080137</v>
       </c>
-      <c r="K71" s="10">
-        <f t="shared" si="26"/>
+      <c r="K79" s="10">
+        <f t="shared" si="39"/>
         <v>0.81750000000000012</v>
       </c>
-      <c r="L71" s="10">
-        <f t="shared" si="26"/>
+      <c r="L79" s="10">
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="M71" s="10">
-        <f t="shared" si="26"/>
+      <c r="M79" s="10">
+        <f t="shared" si="39"/>
         <v>0.99157007376185458</v>
       </c>
-      <c r="N71" s="10">
-        <f t="shared" si="26"/>
+      <c r="N79" s="10">
+        <f t="shared" si="39"/>
         <v>0.98887765419615781</v>
       </c>
-      <c r="O71" s="13">
-        <f t="shared" si="27"/>
+      <c r="O79" s="13">
+        <f t="shared" si="40"/>
         <v>0.84364155019841991</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="B72" s="13">
-        <f>MAX(B63:B71)</f>
+    <row r="80" spans="1:15">
+      <c r="B80" s="13">
+        <f>MAX(B71:B79)</f>
         <v>0.88407821229050265</v>
       </c>
-      <c r="C72" s="13">
-        <f t="shared" ref="C72:L72" si="28">MAX(C63:C71)</f>
+      <c r="C80" s="13">
+        <f t="shared" ref="C80:L80" si="41">MAX(C71:C79)</f>
         <v>0.98169014084507045</v>
       </c>
-      <c r="D72" s="13">
-        <f t="shared" si="28"/>
+      <c r="D80" s="13">
+        <f t="shared" si="41"/>
         <v>0.97371303395399778</v>
       </c>
-      <c r="E72" s="13">
-        <f t="shared" si="28"/>
+      <c r="E80" s="13">
+        <f t="shared" si="41"/>
         <v>0.94294770206022183</v>
       </c>
-      <c r="F72" s="13">
-        <f t="shared" si="28"/>
+      <c r="F80" s="13">
+        <f t="shared" si="41"/>
         <v>0.93829787234042561</v>
       </c>
-      <c r="G72" s="13">
-        <f t="shared" si="28"/>
+      <c r="G80" s="13">
+        <f t="shared" si="41"/>
         <v>0.98271889400921664</v>
       </c>
-      <c r="H72" s="13">
-        <f t="shared" si="28"/>
+      <c r="H80" s="13">
+        <f t="shared" si="41"/>
         <v>0.99799599198396793</v>
       </c>
-      <c r="I72" s="13">
-        <f t="shared" si="28"/>
+      <c r="I80" s="13">
+        <f t="shared" si="41"/>
         <v>0.98232848232848236</v>
       </c>
-      <c r="J72" s="13">
-        <f t="shared" si="28"/>
+      <c r="J80" s="13">
+        <f t="shared" si="41"/>
         <v>0.96597145993413824</v>
       </c>
-      <c r="K72" s="13">
-        <f t="shared" si="28"/>
+      <c r="K80" s="13">
+        <f t="shared" si="41"/>
         <v>0.86999999999999988</v>
       </c>
-      <c r="L72" s="13">
-        <f t="shared" si="28"/>
+      <c r="L80" s="13">
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
-      <c r="M72" s="13">
-        <f>MAX(M63:M71)</f>
+      <c r="M80" s="13">
+        <f>MAX(M71:M79)</f>
         <v>0.99157007376185458</v>
       </c>
-      <c r="N72" s="13">
-        <f t="shared" ref="N72" si="29">MAX(N63:N71)</f>
+      <c r="N80" s="13">
+        <f t="shared" ref="N80" si="42">MAX(N71:N79)</f>
         <v>0.98988877654196161</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="B73" s="13">
-        <f>MIN(B63:B71)</f>
+    <row r="81" spans="2:14">
+      <c r="B81" s="13">
+        <f>MIN(B71:B79)</f>
         <v>0.54748603351955316</v>
       </c>
-      <c r="C73" s="13">
-        <f t="shared" ref="C73:L73" si="30">MIN(C63:C71)</f>
+      <c r="C81" s="13">
+        <f t="shared" ref="C81:L81" si="43">MIN(C71:C79)</f>
         <v>0.59295774647887312</v>
       </c>
-      <c r="D73" s="13">
-        <f t="shared" si="30"/>
+      <c r="D81" s="13">
+        <f t="shared" si="43"/>
         <v>0.16210295728368018</v>
       </c>
-      <c r="E73" s="13">
-        <f t="shared" si="30"/>
+      <c r="E81" s="13">
+        <f t="shared" si="43"/>
         <v>0.66877971473851039</v>
       </c>
-      <c r="F73" s="13">
-        <f t="shared" si="30"/>
+      <c r="F81" s="13">
+        <f t="shared" si="43"/>
         <v>0.37234042553191493</v>
       </c>
-      <c r="G73" s="13">
-        <f t="shared" si="30"/>
+      <c r="G81" s="13">
+        <f t="shared" si="43"/>
         <v>0.64516129032258074</v>
       </c>
-      <c r="H73" s="13">
-        <f t="shared" si="30"/>
+      <c r="H81" s="13">
+        <f t="shared" si="43"/>
         <v>0.38877755511022039</v>
       </c>
-      <c r="I73" s="13">
-        <f t="shared" si="30"/>
+      <c r="I81" s="13">
+        <f t="shared" si="43"/>
         <v>0.21829521829521825</v>
       </c>
-      <c r="J73" s="13">
-        <f t="shared" si="30"/>
+      <c r="J81" s="13">
+        <f t="shared" si="43"/>
         <v>0.80680570801317242</v>
       </c>
-      <c r="K73" s="13">
-        <f t="shared" si="30"/>
+      <c r="K81" s="13">
+        <f t="shared" si="43"/>
         <v>0.4325</v>
       </c>
-      <c r="L73" s="13">
-        <f t="shared" si="30"/>
+      <c r="L81" s="13">
+        <f t="shared" si="43"/>
         <v>0.27400000000000002</v>
       </c>
-      <c r="M73" s="13">
-        <f>MIN(M63:M71)</f>
+      <c r="M81" s="13">
+        <f>MIN(M71:M79)</f>
         <v>0.34878819810326656</v>
       </c>
-      <c r="N73" s="13">
-        <f t="shared" ref="N73" si="31">MIN(N63:N71)</f>
+      <c r="N81" s="13">
+        <f t="shared" ref="N81" si="44">MIN(N71:N79)</f>
         <v>0.45904954499494433</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="B74" s="13">
-        <f>B72-B73</f>
+    <row r="82" spans="2:14">
+      <c r="B82" s="13">
+        <f>B80-B81</f>
         <v>0.33659217877094949</v>
       </c>
-      <c r="C74" s="13">
-        <f t="shared" ref="C74:L74" si="32">C72-C73</f>
+      <c r="C82" s="13">
+        <f t="shared" ref="C82:L82" si="45">C80-C81</f>
         <v>0.38873239436619733</v>
       </c>
-      <c r="D74" s="13">
-        <f t="shared" si="32"/>
+      <c r="D82" s="13">
+        <f t="shared" si="45"/>
         <v>0.81161007667031759</v>
       </c>
-      <c r="E74" s="13">
-        <f t="shared" si="32"/>
+      <c r="E82" s="13">
+        <f t="shared" si="45"/>
         <v>0.27416798732171144</v>
       </c>
-      <c r="F74" s="13">
-        <f t="shared" si="32"/>
+      <c r="F82" s="13">
+        <f t="shared" si="45"/>
         <v>0.56595744680851068</v>
       </c>
-      <c r="G74" s="13">
-        <f t="shared" si="32"/>
+      <c r="G82" s="13">
+        <f t="shared" si="45"/>
         <v>0.3375576036866359</v>
       </c>
-      <c r="H74" s="13">
-        <f t="shared" si="32"/>
+      <c r="H82" s="13">
+        <f t="shared" si="45"/>
         <v>0.60921843687374755</v>
       </c>
-      <c r="I74" s="13">
-        <f t="shared" si="32"/>
+      <c r="I82" s="13">
+        <f t="shared" si="45"/>
         <v>0.7640332640332641</v>
       </c>
-      <c r="J74" s="13">
-        <f t="shared" si="32"/>
+      <c r="J82" s="13">
+        <f t="shared" si="45"/>
         <v>0.15916575192096583</v>
       </c>
-      <c r="K74" s="13">
-        <f t="shared" si="32"/>
+      <c r="K82" s="13">
+        <f t="shared" si="45"/>
         <v>0.43749999999999989</v>
       </c>
-      <c r="L74" s="13">
-        <f t="shared" si="32"/>
+      <c r="L82" s="13">
+        <f t="shared" si="45"/>
         <v>0.72599999999999998</v>
       </c>
-      <c r="M74" s="13">
-        <f>M72-M73</f>
+      <c r="M82" s="13">
+        <f>M80-M81</f>
         <v>0.64278187565858802</v>
       </c>
-      <c r="N74" s="13">
-        <f t="shared" ref="N74" si="33">N72-N73</f>
+      <c r="N82" s="13">
+        <f t="shared" ref="N82" si="46">N80-N81</f>
         <v>0.53083923154701729</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="B75" s="13">
-        <f>AVERAGE(B63:B71)</f>
+    <row r="83" spans="2:14">
+      <c r="B83" s="13">
+        <f>AVERAGE(B71:B79)</f>
         <v>0.70266914959652405</v>
       </c>
-      <c r="C75" s="13">
-        <f t="shared" ref="C75:N75" si="34">AVERAGE(C63:C71)</f>
+      <c r="C83" s="13">
+        <f t="shared" ref="C83:N83" si="47">AVERAGE(C71:C79)</f>
         <v>0.79765258215962431</v>
       </c>
-      <c r="D75" s="13">
-        <f t="shared" si="34"/>
+      <c r="D83" s="13">
+        <f t="shared" si="47"/>
         <v>0.66033832298892547</v>
       </c>
-      <c r="E75" s="13">
-        <f t="shared" si="34"/>
+      <c r="E83" s="13">
+        <f t="shared" si="47"/>
         <v>0.82356048600105669</v>
       </c>
-      <c r="F75" s="13">
-        <f t="shared" si="34"/>
+      <c r="F83" s="13">
+        <f t="shared" si="47"/>
         <v>0.68179669030732859</v>
       </c>
-      <c r="G75" s="13">
-        <f t="shared" si="34"/>
+      <c r="G83" s="13">
+        <f t="shared" si="47"/>
         <v>0.8156682027649772</v>
       </c>
-      <c r="H75" s="13">
-        <f t="shared" si="34"/>
+      <c r="H83" s="13">
+        <f t="shared" si="47"/>
         <v>0.71253618347806724</v>
       </c>
-      <c r="I75" s="13">
-        <f t="shared" si="34"/>
+      <c r="I83" s="13">
+        <f t="shared" si="47"/>
         <v>0.65269115269115263</v>
       </c>
-      <c r="J75" s="13">
-        <f t="shared" si="34"/>
+      <c r="J83" s="13">
+        <f t="shared" si="47"/>
         <v>0.91986827661909998</v>
       </c>
-      <c r="K75" s="13">
-        <f t="shared" si="34"/>
+      <c r="K83" s="13">
+        <f t="shared" si="47"/>
         <v>0.60611111111111116</v>
       </c>
-      <c r="L75" s="13">
-        <f>AVERAGE(L63:L71)</f>
+      <c r="L83" s="13">
+        <f>AVERAGE(L71:L79)</f>
         <v>0.68899999999999995</v>
       </c>
-      <c r="M75" s="13">
-        <f t="shared" si="34"/>
+      <c r="M83" s="13">
+        <f t="shared" si="47"/>
         <v>0.83994848378410014</v>
       </c>
-      <c r="N75" s="13">
-        <f t="shared" si="34"/>
+      <c r="N83" s="13">
+        <f t="shared" si="47"/>
         <v>0.78114818559712385</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
-      <c r="B76" t="s">
+    <row r="84" spans="2:14">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" t="str">
+        <f>"In "&amp;B41&amp;" you are most similar to X ("&amp; INT(100*B80)&amp;"% similar with a score of ), and most different to Y ("&amp;INT(100*B81)&amp;"% similar)."</f>
+        <v>In Doctorate to bachelor awarded you are most similar to X (88% similar with a score of ), and most different to Y (54% similar).</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" ref="C90:N90" si="48">"In "&amp;C41&amp;" you are most similar to X ("&amp; INT(100*C80)&amp;"% similar), and most different to Y ("&amp;INT(100*C81)&amp;"% similar)."</f>
+        <v>In Doctorate awarded to academic staff you are most similar to X (98% similar), and most different to Y (59% similar).</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="48"/>
+        <v>In Teaching reputation you are most similar to X (97% similar), and most different to Y (16% similar).</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="48"/>
+        <v>In Institutional income to academic staff you are most similar to X (94% similar), and most different to Y (66% similar).</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="48"/>
+        <v>In Students to academic staff you are most similar to X (93% similar), and most different to Y (37% similar).</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="48"/>
+        <v>In Papers to academic staff you are most similar to X (98% similar), and most different to Y (64% similar).</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="48"/>
+        <v>In Research income to academic staff you are most similar to X (99% similar), and most different to Y (38% similar).</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="48"/>
+        <v>In Research reputation you are most similar to X (98% similar), and most different to Y (21% similar).</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="48"/>
+        <v>In Citation impact you are most similar to X (96% similar), and most different to Y (80% similar).</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="48"/>
+        <v>In Industry income to academic staff you are most similar to X (87% similar), and most different to Y (43% similar).</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="48"/>
+        <v>In International staff you are most similar to X (100% similar), and most different to Y (27% similar).</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="48"/>
+        <v>In Coauthorship you are most similar to X (99% similar), and most different to Y (34% similar).</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="48"/>
+        <v>In International students you are most similar to X (98% similar), and most different to Y (45% similar).</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" s="16"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="B93" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="B94" t="str">
+        <f>"In this metric the highest performing benchmark institution is École Polytechnique Fédérale de Lausanne, beating your score by "&amp;ROUND(B55,2)&amp;". "</f>
+        <v xml:space="preserve">In this metric the highest performing benchmark institution is École Polytechnique Fédérale de Lausanne, beating your score by 8.3. </v>
+      </c>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="B95" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14">
+      <c r="B96" t="str">
+        <f>"In this metric the highest performing benchmark institution is Humboldt University of Berlin, beating your score by "&amp;ROUND(C55,2) &amp;"."</f>
+        <v>In this metric the highest performing benchmark institution is Humboldt University of Berlin, beating your score by 28.9.</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="str">
+        <f>"In this metric the highest performing benchmark institution is University College London, beating your score by "&amp; ROUND(D55,2) &amp;"."</f>
+        <v>In this metric the highest performing benchmark institution is University College London, beating your score by 2.4.</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="str">
+        <f>"In this metric the highest performing benchmark institution is University of California, Santa Barbara, beating your score by " &amp; ROUND(E55,2) &amp; "."</f>
+        <v>In this metric the highest performing benchmark institution is University of California, Santa Barbara, beating your score by 8.9.</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
-      <c r="B78" t="str">
-        <f>"In "&amp;B38&amp;" you are most similar to X ("&amp; INT(100*B72)&amp;"% similar with a score of ), and most different to Y ("&amp;INT(100*B73)&amp;"% similar)."</f>
-        <v>In Doctorate to bachelor awarded you are most similar to X (88% similar with a score of ), and most different to Y (54% similar).</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" ref="C78:N78" si="35">"In "&amp;C38&amp;" you are most similar to X ("&amp; INT(100*C72)&amp;"% similar), and most different to Y ("&amp;INT(100*C73)&amp;"% similar)."</f>
-        <v>In Doctorate awarded to academic staff you are most similar to X (98% similar), and most different to Y (59% similar).</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="35"/>
-        <v>In Teaching reputation you are most similar to X (97% similar), and most different to Y (16% similar).</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="35"/>
-        <v>In Institutional income to academic staff you are most similar to X (94% similar), and most different to Y (66% similar).</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" si="35"/>
-        <v>In Students to academic staff you are most similar to X (93% similar), and most different to Y (37% similar).</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="35"/>
-        <v>In Papers to academic staff you are most similar to X (98% similar), and most different to Y (64% similar).</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="35"/>
-        <v>In Research income to academic staff you are most similar to X (99% similar), and most different to Y (38% similar).</v>
-      </c>
-      <c r="I78" t="str">
-        <f t="shared" si="35"/>
-        <v>In Research reputation you are most similar to X (98% similar), and most different to Y (21% similar).</v>
-      </c>
-      <c r="J78" t="str">
-        <f t="shared" si="35"/>
-        <v>In Citation impact you are most similar to X (96% similar), and most different to Y (80% similar).</v>
-      </c>
-      <c r="K78" t="str">
-        <f t="shared" si="35"/>
-        <v>In Industry income to academic staff you are most similar to X (87% similar), and most different to Y (43% similar).</v>
-      </c>
-      <c r="L78" t="str">
-        <f t="shared" si="35"/>
-        <v>In International staff you are most similar to X (100% similar), and most different to Y (27% similar).</v>
-      </c>
-      <c r="M78" t="str">
-        <f t="shared" si="35"/>
-        <v>In Coauthorship you are most similar to X (99% similar), and most different to Y (34% similar).</v>
-      </c>
-      <c r="N78" t="str">
-        <f t="shared" si="35"/>
-        <v>In International students you are most similar to X (98% similar), and most different to Y (45% similar).</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="B79" s="16"/>
-    </row>
-    <row r="81" spans="2:14">
-      <c r="B81" t="s">
-        <v>223</v>
-      </c>
-      <c r="C81" t="s">
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
         <v>225</v>
       </c>
-      <c r="D81" t="s">
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
         <v>226</v>
       </c>
-      <c r="E81" t="s">
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
         <v>227</v>
       </c>
-      <c r="F81" t="s">
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
         <v>228</v>
       </c>
-      <c r="G81" t="s">
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
         <v>229</v>
       </c>
-      <c r="H81" t="s">
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
         <v>230</v>
       </c>
-      <c r="I81" t="s">
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
         <v>231</v>
       </c>
-      <c r="J81" t="s">
-        <v>218</v>
-      </c>
-      <c r="K81" t="s">
-        <v>219</v>
-      </c>
-      <c r="L81" t="s">
-        <v>220</v>
-      </c>
-      <c r="M81" t="s">
-        <v>221</v>
-      </c>
-      <c r="N81" t="s">
-        <v>222</v>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B14:G22">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="B17:G25">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5300,8 +6076,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F34">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="B29:F37">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5312,7 +6088,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:N60">
+  <conditionalFormatting sqref="B60:N68">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:N79">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B68">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -5324,19 +6124,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:N71">
+  <conditionalFormatting sqref="C60:C68">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B60">
+  <conditionalFormatting sqref="D60:D68">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E68">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -5348,7 +6160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C60">
+  <conditionalFormatting sqref="F60:F68">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -5360,7 +6172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D60">
+  <conditionalFormatting sqref="G60:G68">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5372,7 +6184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E60">
+  <conditionalFormatting sqref="H60:H68">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -5384,8 +6196,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52:F60">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="I60:I68">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5396,8 +6208,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52:G60">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="J60:J68">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5408,8 +6220,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H60">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="K60:K68">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5420,7 +6232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:I60">
+  <conditionalFormatting sqref="L60:L68">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5432,7 +6244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J60">
+  <conditionalFormatting sqref="M60:M68">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5444,7 +6256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K60">
+  <conditionalFormatting sqref="N60:N68">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5456,43 +6268,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52:L60">
+  <conditionalFormatting sqref="B71:B79">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M52:M60">
+  <conditionalFormatting sqref="C71:C79">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52:N60">
+  <conditionalFormatting sqref="D71:D79">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B71">
+  <conditionalFormatting sqref="E71:E79">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5504,7 +6316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:C71">
+  <conditionalFormatting sqref="F71:F79">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5516,7 +6328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D71">
+  <conditionalFormatting sqref="G71:G79">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5528,7 +6340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E71">
+  <conditionalFormatting sqref="H71:H79">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5540,7 +6352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63:F71">
+  <conditionalFormatting sqref="I71:I79">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5552,7 +6364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63:G71">
+  <conditionalFormatting sqref="J71:J79">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5564,7 +6376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63:H71">
+  <conditionalFormatting sqref="K71:K79">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5576,7 +6388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
+  <conditionalFormatting sqref="L71:L79">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5588,7 +6400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
+  <conditionalFormatting sqref="M71:M79">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5600,7 +6412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:K71">
+  <conditionalFormatting sqref="N71:N79">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5612,7 +6424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L63:L71">
+  <conditionalFormatting sqref="B83:N87">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5624,7 +6436,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M63:M71">
+  <conditionalFormatting sqref="B45:N53 B58:N58 O45:O47 O53">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5636,7 +6448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N63:N71">
+  <conditionalFormatting sqref="O45:O53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5648,7 +6460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:N75">
+  <conditionalFormatting sqref="B4:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5674,7 +6486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -6585,4 +7397,137 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>